--- a/data/trans_orig/iP30KDA5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C45B2455-3AC9-461C-9C68-DB043BC664A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00FA1889-EDA6-4ABA-AA50-623BCBADFA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52579093-1B51-4EAD-BACF-F50F967DE6C1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AC616A2A-2675-4282-8FE3-76DEB392261A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si consumen pescados con regularidad (por lo menos 2-3 veces a la semana) en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,220 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48CE9CC-9E41-4BAD-A5E4-8B1A7405675E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAACBEF-098B-4C40-973F-153A5CF52809}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -880,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7">
-        <v>35890</v>
+        <v>40767</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -895,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I4" s="7">
-        <v>41021</v>
+        <v>37684</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -913,7 +919,7 @@
         <v>141</v>
       </c>
       <c r="N4" s="7">
-        <v>76910</v>
+        <v>78450</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -931,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>7254</v>
+        <v>5728</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -946,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>5272</v>
+        <v>7601</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -964,7 +970,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>12526</v>
+        <v>13329</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -982,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1015,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1035,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D7" s="7">
-        <v>148388</v>
+        <v>130168</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1050,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="I7" s="7">
-        <v>129925</v>
+        <v>154039</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1068,7 +1074,7 @@
         <v>441</v>
       </c>
       <c r="N7" s="7">
-        <v>278313</v>
+        <v>284208</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1086,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>26329</v>
+        <v>29131</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1101,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>28840</v>
+        <v>27920</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1119,7 +1125,7 @@
         <v>92</v>
       </c>
       <c r="N8" s="7">
-        <v>55169</v>
+        <v>57051</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1137,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1170,7 +1176,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1190,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D10" s="7">
-        <v>166339</v>
+        <v>139809</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1205,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="I10" s="7">
-        <v>143478</v>
+        <v>172484</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1223,16 +1229,16 @@
         <v>389</v>
       </c>
       <c r="N10" s="7">
-        <v>309817</v>
+        <v>312295</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,49 +1247,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>33263</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>43</v>
       </c>
-      <c r="D11" s="7">
-        <v>36139</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>44</v>
-      </c>
       <c r="I11" s="7">
-        <v>32635</v>
+        <v>40006</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>87</v>
       </c>
       <c r="N11" s="7">
-        <v>68774</v>
+        <v>73268</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1292,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1325,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1339,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>263</v>
+      </c>
+      <c r="D13" s="7">
+        <v>215532</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
         <v>272</v>
       </c>
-      <c r="D13" s="7">
-        <v>233551</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>263</v>
-      </c>
       <c r="I13" s="7">
-        <v>200549</v>
+        <v>244553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>535</v>
       </c>
       <c r="N13" s="7">
-        <v>434100</v>
+        <v>460085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>78</v>
+      </c>
+      <c r="D14" s="7">
+        <v>58735</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>69</v>
       </c>
-      <c r="D14" s="7">
-        <v>55443</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="7">
-        <v>78</v>
-      </c>
       <c r="I14" s="7">
-        <v>58889</v>
+        <v>60446</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>147</v>
       </c>
       <c r="N14" s="7">
-        <v>114333</v>
+        <v>119181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,7 +1456,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1465,7 +1471,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1480,7 +1486,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1500,49 +1506,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>734</v>
+      </c>
+      <c r="D16" s="7">
+        <v>526278</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>772</v>
       </c>
-      <c r="D16" s="7">
-        <v>584168</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>734</v>
-      </c>
       <c r="I16" s="7">
-        <v>514972</v>
+        <v>608760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1506</v>
       </c>
       <c r="N16" s="7">
-        <v>1099140</v>
+        <v>1135038</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>181</v>
+      </c>
+      <c r="D17" s="7">
+        <v>126856</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>168</v>
       </c>
-      <c r="D17" s="7">
-        <v>125165</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="7">
-        <v>181</v>
-      </c>
       <c r="I17" s="7">
-        <v>125637</v>
+        <v>135973</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>349</v>
       </c>
       <c r="N17" s="7">
-        <v>250802</v>
+        <v>262829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1635,7 +1641,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1649,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
